--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_10_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50461.81402182693</v>
+        <v>10041900.99034355</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50461.81402182693</v>
+        <v>10041900.99034355</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.773511938166621</v>
+        <v>286.4107162899973</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.773511938166621</v>
+        <v>286.4107162899973</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958960843.7426397</v>
+        <v>39302275.08597177</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7979.622786756731</v>
+        <v>879049.9469131581</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15369.09918771627</v>
+        <v>1666136.729561339</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22758.5755886758</v>
+        <v>2453223.51220952</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30481.6322426704</v>
+        <v>3254044.659387089</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38135.79192696804</v>
+        <v>4041155.309594962</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45789.95161126566</v>
+        <v>4828265.959802832</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53444.11129556327</v>
+        <v>5615376.610010701</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61098.27097986089</v>
+        <v>6402487.260218569</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68752.43066415851</v>
+        <v>7189597.910426438</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76406.59034845613</v>
+        <v>7976708.560634307</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84060.75003275374</v>
+        <v>8763819.210842181</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91714.90971705136</v>
+        <v>9550929.861050058</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99369.06940134896</v>
+        <v>10338040.51125794</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107023.2290856466</v>
+        <v>11125151.16146581</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114677.3887699442</v>
+        <v>11912261.81167369</v>
       </c>
     </row>
   </sheetData>
